--- a/T&C.xlsx
+++ b/T&C.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manue\Documents\Mods\CK3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FA8071-622D-4225-B23C-E3ED8D25F4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCDD09A-E26C-448A-B891-2389185DF4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25430" yWindow="7530" windowWidth="28800" windowHeight="15470" activeTab="1" xr2:uid="{E2032F1C-75E6-47FA-8268-5B24ADF2BD71}"/>
   </bookViews>
@@ -998,10 +998,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3936EAE0-2D83-49B0-86E9-283851203F67}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:F23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1012,7 +1012,7 @@
     <col min="5" max="7" width="13.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>59</v>
       </c>
@@ -1030,181 +1030,184 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>50</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="1">
-        <v>100</v>
+      <c r="D2">
+        <v>20</v>
       </c>
       <c r="E2" s="1">
         <f>D2</f>
+        <v>20</v>
+      </c>
+      <c r="F2" s="1">
         <v>100</v>
-      </c>
-      <c r="F2" s="1">
-        <v>50</v>
       </c>
       <c r="G2" s="1">
         <f>F2</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="1">
-        <v>0</v>
+      <c r="D3">
+        <v>-100</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E10" si="0">D3</f>
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F3" s="1">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
         <f t="shared" ref="G3:G10" si="1">F3</f>
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="1">
-        <v>5</v>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
         <v>5</v>
-      </c>
-      <c r="F4" s="1">
-        <v>-20</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" si="1"/>
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="1">
-        <v>85</v>
+      <c r="D5">
+        <v>-10</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="F5" s="1">
         <v>85</v>
-      </c>
-      <c r="F5" s="1">
-        <v>10</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="1">
-        <v>70</v>
+      <c r="D6">
+        <v>35</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F6" s="1">
         <v>70</v>
-      </c>
-      <c r="F6" s="1">
-        <v>45</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+      <c r="H6">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="1">
-        <v>10</v>
+      <c r="D7">
+        <v>-100</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+      <c r="F7" s="1">
         <v>10</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="1">
-        <v>40</v>
+      <c r="D8">
+        <v>20</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F8" s="1">
         <v>40</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="1">
-        <v>-20</v>
+      <c r="D9">
+        <v>5</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
         <v>-20</v>
-      </c>
-      <c r="F9" s="1">
-        <v>25</v>
       </c>
       <c r="G9" s="1">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="1">
-        <v>0</v>
+      <c r="D10">
+        <v>10</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D13" s="1" t="s">
         <v>56</v>
       </c>
@@ -1215,9 +1218,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>47</v>
@@ -1226,20 +1229,20 @@
         <v>0</v>
       </c>
       <c r="D14" s="12">
-        <f>IF(C14&gt;A14,ABS(D$6)+MAX(D$2,0)+100*(C14-A14),IF(C14&lt;A14,-ABS(D$6)-MAX(D$2,0)+150*(C14-A14),0))</f>
-        <v>-470</v>
+        <f>IF($C14&gt;$A14,ABS(D$6)+MAX(D$2,0)+100*($C14-$A14),IF($C14&lt;$A14,-ABS(D$6)-MAX(D$2,0)+150*($C14-$A14),0))</f>
+        <v>-205</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12">
-        <f>IF(A14&gt;C14,ABS(F$6)-F$2+100*(A14-C14),IF(A14&lt;C14,-ABS(F$6)-MAX(F$2,0)+150*(A14-C14),0))</f>
-        <v>195</v>
+        <f>IF($C14&lt;$A14,ABS(F$6)-F$2-100*($C14-$A14),IF($C14&gt;$A14,-ABS(F$6)+F$2-150*($C14-$A14),0))</f>
+        <v>70</v>
       </c>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <f>A14</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>47</v>
@@ -1248,20 +1251,20 @@
         <v>1</v>
       </c>
       <c r="D15" s="12">
-        <f t="shared" ref="D15:D18" si="2">IF(C15&gt;A15,ABS(D$6)+MAX(D$2,0)+100*(C15-A15),IF(C15&lt;A15,-ABS(D$6)-MAX(D$2,0)+150*(C15-A15),0))</f>
-        <v>-320</v>
+        <f t="shared" ref="D15:D18" si="2">IF($C15&gt;$A15,ABS(D$6)+MAX(D$2,0)+100*($C15-$A15),IF($C15&lt;$A15,-ABS(D$6)-MAX(D$2,0)+150*($C15-$A15),0))</f>
+        <v>0</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12">
-        <f t="shared" ref="F15:F18" si="3">IF(A15&gt;C15,ABS(F$6)-F$2+100*(A15-C15),IF(A15&lt;C15,-ABS(F$6)-MAX(F$2,0)+150*(A15-C15),0))</f>
-        <v>95</v>
+        <f t="shared" ref="F15:F18" si="3">IF($C15&lt;$A15,ABS(F$6)-F$2-100*($C15-$A15),IF($C15&gt;$A15,-ABS(F$6)+F$2-150*($C15-$A15),0))</f>
+        <v>0</v>
       </c>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" ref="A16:A23" si="4">A15</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>47</v>
@@ -1271,19 +1274,19 @@
       </c>
       <c r="D16" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>47</v>
@@ -1293,19 +1296,19 @@
       </c>
       <c r="D17" s="12">
         <f t="shared" si="2"/>
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12">
         <f t="shared" si="3"/>
-        <v>-245</v>
+        <v>-270</v>
       </c>
       <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>47</v>
@@ -1315,18 +1318,18 @@
       </c>
       <c r="D18" s="12">
         <f t="shared" si="2"/>
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12">
         <f t="shared" si="3"/>
-        <v>-395</v>
+        <v>-420</v>
       </c>
       <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>46</v>
@@ -1335,20 +1338,20 @@
         <v>0</v>
       </c>
       <c r="D19" s="12">
-        <f>IF(C19&gt;A19,D$3+MAX(D$2,0)+100*(C19-A19),IF(C19&lt;A19,-D$3-MAX(D$2,0)+150*(C19-A19),0))</f>
-        <v>-400</v>
+        <f>IF($C19&gt;$A19,D$3+MAX(D$2,0)+100*($C19-$A19),IF($C19&lt;$A19,-D$3-MAX(D$2,0)+150*($C19-$A19),0))</f>
+        <v>-70</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12">
-        <f>IF(A19&gt;C19,MAX(F$3-F$2+100*(A19-C19),0),IF(A19&lt;C19,-F$3-MAX(F$2,0)+150*(A19-C19),0))</f>
-        <v>50</v>
+        <f>IF($C19&lt;$A19,F$3-F$2-100*($C19-$A19),IF($C19&gt;$A19,-F$3+F$2-150*($C19-$A19),0))</f>
+        <v>0</v>
       </c>
       <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>46</v>
@@ -1357,12 +1360,12 @@
         <v>1</v>
       </c>
       <c r="D20" s="12">
-        <f t="shared" ref="D20:D23" si="5">IF(C20&gt;A20,D$3+MAX(D$2,0)+100*(C20-A20),IF(C20&lt;A20,-D$3-MAX(D$2,0)+150*(C20-A20),0))</f>
-        <v>-250</v>
+        <f t="shared" ref="D20:D23" si="5">IF($C20&gt;$A20,D$3+MAX(D$2,0)+100*($C20-$A20),IF($C20&lt;$A20,-D$3-MAX(D$2,0)+150*($C20-$A20),0))</f>
+        <v>0</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12">
-        <f t="shared" ref="F20:F23" si="6">IF(A20&gt;C20,MAX(F$3-F$2+100*(A20-C20),0),IF(A20&lt;C20,-F$3-MAX(F$2,0)+150*(A20-C20),0))</f>
+        <f t="shared" ref="F20:F23" si="6">IF($C20&lt;$A20,F$3-F$2-100*($C20-$A20),IF($C20&gt;$A20,-F$3+F$2-150*($C20-$A20),0))</f>
         <v>0</v>
       </c>
       <c r="G20" s="12"/>
@@ -1370,7 +1373,7 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>46</v>
@@ -1380,19 +1383,19 @@
       </c>
       <c r="D21" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="G21" s="12"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>46</v>
@@ -1402,19 +1405,19 @@
       </c>
       <c r="D22" s="12">
         <f t="shared" si="5"/>
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12">
         <f t="shared" si="6"/>
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G22" s="12"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>46</v>
@@ -1424,12 +1427,12 @@
       </c>
       <c r="D23" s="12">
         <f t="shared" si="5"/>
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12">
         <f t="shared" si="6"/>
-        <v>-250</v>
+        <v>-350</v>
       </c>
       <c r="G23" s="12"/>
     </row>
@@ -1479,7 +1482,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1">
         <f>-F29</f>
-        <v>-100</v>
+        <v>-110</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -1492,12 +1495,12 @@
       </c>
       <c r="D29" s="1">
         <f>MAX((100+D$7),0)</f>
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1">
         <f>MAX(100+F$7,0)</f>
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -1574,7 +1577,7 @@
       </c>
       <c r="D38" s="13">
         <f>MAX((100-D$10),0)</f>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="13">
@@ -1597,7 +1600,7 @@
       <c r="E39" s="13"/>
       <c r="F39" s="13">
         <f>MAX((100+F$10),0)</f>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G39" s="13"/>
     </row>
@@ -1609,8 +1612,8 @@
         <v>0</v>
       </c>
       <c r="D40" s="1">
-        <f>MAX((100+D$8-D$6),0)</f>
-        <v>70</v>
+        <f>100-D6+D8-MIN(F8,0)</f>
+        <v>85</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1">
@@ -1627,13 +1630,13 @@
         <v>1</v>
       </c>
       <c r="D41" s="1">
-        <f>MAX((100+D$8-D$6)*-1,0)</f>
-        <v>0</v>
+        <f>-D40</f>
+        <v>-85</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1">
         <f>MAX((100+F$8-F$6),0)</f>
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="G41" s="1"/>
     </row>
@@ -1668,6 +1671,32 @@
     <row r="52" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C52"/>
       <c r="D52"/>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C54" s="1">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C55" s="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C56" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C57" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C58" s="1">
+        <f>SUM(C55:C57)</f>
+        <v>440</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
